--- a/09 - Multiple Regression/09-MultipleRegression.xlsx
+++ b/09 - Multiple Regression/09-MultipleRegression.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\business-forecasting\09 - Multiple Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\business-forecasting\09 - Multiple Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C9F59E-15F0-4A03-8884-8195C629C98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="1335" windowWidth="22920" windowHeight="12855" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="1335" windowWidth="22920" windowHeight="12855" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -76,7 +75,7 @@
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -271,23 +270,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="187" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -295,7 +294,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -303,7 +302,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -370,7 +369,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -381,7 +380,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="187" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -581,6 +580,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -606,7 +606,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -644,7 +644,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="730645008"/>
@@ -704,6 +704,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -729,7 +730,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -767,7 +768,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="730647088"/>
@@ -808,7 +809,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="th-TH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1022,7 +1023,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1060,7 +1061,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="730645008"/>
@@ -1145,7 +1146,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1183,7 +1184,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="730647088"/>
@@ -1224,7 +1225,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="th-TH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2781,28 +2782,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>0.91003473112272859</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2818,7 +2819,7 @@
         <v>0.82816321184961683</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2826,7 +2827,7 @@
         <v>0.81566599089322533</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -2834,7 +2835,7 @@
         <v>11689.892189957467</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -2842,12 +2843,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -2865,7 +2866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -2885,7 +2886,7 @@
         <v>2.1968743067485653E-20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2901,7 +2902,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -2915,8 +2916,8 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>23</v>
@@ -2943,7 +2944,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>100511.32765847033</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -3001,7 +3002,7 @@
         <v>4.0121879994028662</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -3030,7 +3031,7 @@
         <v>-4335.3236929273698</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>-388.72297370150409</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
@@ -3094,27 +3095,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" customWidth="1"/>
-    <col min="12" max="14" width="8.5703125" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.75" customWidth="1"/>
+    <col min="12" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3153,7 +3154,7 @@
         <v>UMICS</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44229</v>
       </c>
@@ -3191,7 +3192,7 @@
         <v>1122.4290256210936</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44318</v>
       </c>
@@ -3236,7 +3237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44410</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>217301.20330798568</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44502</v>
       </c>
@@ -3340,7 +3341,7 @@
         <v>220171.00789138034</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44230</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>218863.37442565535</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44319</v>
       </c>
@@ -3444,7 +3445,7 @@
         <v>223659.7911644369</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44411</v>
       </c>
@@ -3470,7 +3471,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44503</v>
       </c>
@@ -3490,7 +3491,7 @@
         <v>91.97</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44231</v>
       </c>
@@ -3513,7 +3514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44320</v>
       </c>
@@ -3549,7 +3550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44412</v>
       </c>
@@ -3587,7 +3588,7 @@
         <v>2.1968743067485653E-20</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44504</v>
       </c>
@@ -3621,7 +3622,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44232</v>
       </c>
@@ -3653,7 +3654,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44321</v>
       </c>
@@ -3673,7 +3674,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44413</v>
       </c>
@@ -3712,7 +3713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44505</v>
       </c>
@@ -3753,7 +3754,7 @@
         <v>100511.32765847033</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44233</v>
       </c>
@@ -3794,7 +3795,7 @@
         <v>4.0121879994028662</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44322</v>
       </c>
@@ -3835,7 +3836,7 @@
         <v>-4335.3236929273698</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44414</v>
       </c>
@@ -3876,7 +3877,7 @@
         <v>-388.72297370150409</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44506</v>
       </c>
@@ -3917,7 +3918,7 @@
         <v>1544.6320884107788</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44234</v>
       </c>
@@ -3937,7 +3938,7 @@
         <v>92.2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44323</v>
       </c>
@@ -3957,7 +3958,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44415</v>
       </c>
@@ -3977,7 +3978,7 @@
         <v>85.73</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44507</v>
       </c>
@@ -3997,7 +3998,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44235</v>
       </c>
@@ -4017,7 +4018,7 @@
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44324</v>
       </c>
@@ -4037,7 +4038,7 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44416</v>
       </c>
@@ -4057,7 +4058,7 @@
         <v>64.83</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44508</v>
       </c>
@@ -4077,7 +4078,7 @@
         <v>57.67</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44236</v>
       </c>
@@ -4097,7 +4098,7 @@
         <v>58.27</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44325</v>
       </c>
@@ -4117,7 +4118,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44417</v>
       </c>
@@ -4137,7 +4138,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44509</v>
       </c>
@@ -4157,7 +4158,7 @@
         <v>70.17</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44237</v>
       </c>
@@ -4177,7 +4178,7 @@
         <v>73.87</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44326</v>
       </c>
@@ -4197,7 +4198,7 @@
         <v>73.930000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44418</v>
       </c>
@@ -4217,7 +4218,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44510</v>
       </c>
@@ -4237,7 +4238,7 @@
         <v>71.27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44238</v>
       </c>
@@ -4257,7 +4258,7 @@
         <v>73.069999999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44327</v>
       </c>
@@ -4277,7 +4278,7 @@
         <v>71.87</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44419</v>
       </c>
@@ -4297,7 +4298,7 @@
         <v>59.67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44511</v>
       </c>
@@ -4317,7 +4318,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44239</v>
       </c>
@@ -4337,7 +4338,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44328</v>
       </c>
@@ -4357,7 +4358,7 @@
         <v>76.3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44420</v>
       </c>
@@ -4377,7 +4378,7 @@
         <v>74.97</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44512</v>
       </c>
@@ -4397,7 +4398,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44240</v>
       </c>
@@ -4417,7 +4418,7 @@
         <v>76.67</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44329</v>
       </c>
@@ -4437,7 +4438,7 @@
         <v>81.67</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44421</v>
       </c>
@@ -4457,7 +4458,7 @@
         <v>81.569999999999993</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44513</v>
       </c>
@@ -4477,7 +4478,7 @@
         <v>76.930000000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44241</v>
       </c>
@@ -4497,7 +4498,7 @@
         <v>80.930000000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44330</v>
       </c>
@@ -4517,7 +4518,7 @@
         <v>82.83</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44422</v>
       </c>
@@ -4537,7 +4538,7 @@
         <v>82.97</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44514</v>
       </c>
@@ -4557,7 +4558,7 @@
         <v>89.77</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44242</v>
       </c>
@@ -4577,7 +4578,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44331</v>
       </c>
@@ -4597,7 +4598,7 @@
         <v>94.23</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44423</v>
       </c>
@@ -4617,7 +4618,7 @@
         <v>90.73</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44515</v>
       </c>
@@ -4637,7 +4638,7 @@
         <v>91.3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44243</v>
       </c>
@@ -4657,7 +4658,7 @@
         <v>91.57</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44332</v>
       </c>
@@ -4677,7 +4678,7 @@
         <v>92.4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44424</v>
       </c>
@@ -4697,7 +4698,7 @@
         <v>90.33</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44516</v>
       </c>
@@ -4723,16 +4724,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4752,7 +4753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>152641</v>
       </c>
@@ -4779,7 +4780,7 @@
         <v>25428.255372432483</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>166036</v>
       </c>
@@ -4805,7 +4806,7 @@
         <v>3.2274615664638113</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>175863</v>
       </c>
@@ -4831,7 +4832,7 @@
         <v>-7666.8515781450242</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>151219</v>
       </c>
@@ -4857,7 +4858,7 @@
         <v>-3219.49912454477</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>152843</v>
       </c>
@@ -4883,7 +4884,7 @@
         <v>1122.4290256210024</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>173360</v>
       </c>
@@ -4903,7 +4904,7 @@
         <v>89.27</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>178086</v>
       </c>
@@ -4923,7 +4924,7 @@
         <v>89.3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>154916</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>91.97</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>159086</v>
       </c>
@@ -4963,7 +4964,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>172174</v>
       </c>
@@ -4983,7 +4984,7 @@
         <v>93.33</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>178077</v>
       </c>
@@ -5003,7 +5004,7 @@
         <v>95.6</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>161216</v>
       </c>
@@ -5023,7 +5024,7 @@
         <v>93.87</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>160070</v>
       </c>
@@ -5043,7 +5044,7 @@
         <v>94.07</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>183594</v>
       </c>
@@ -5063,7 +5064,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>184878</v>
       </c>
@@ -5083,7 +5084,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>153405</v>
       </c>
@@ -5103,7 +5104,7 @@
         <v>82.43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>164864</v>
       </c>
@@ -5123,7 +5124,7 @@
         <v>88.93</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>178363</v>
       </c>
@@ -5143,7 +5144,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>181615</v>
       </c>
@@ -5163,7 +5164,7 @@
         <v>84.03</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>160780</v>
       </c>
@@ -5183,7 +5184,7 @@
         <v>92.47</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>167528</v>
       </c>
@@ -5203,7 +5204,7 @@
         <v>92.2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>180006</v>
       </c>
@@ -5223,7 +5224,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>179216</v>
       </c>
@@ -5243,7 +5244,7 @@
         <v>85.73</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>160957</v>
       </c>
@@ -5263,7 +5264,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>158369</v>
       </c>
@@ -5283,7 +5284,7 @@
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>158761</v>
       </c>
@@ -5303,7 +5304,7 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>146003</v>
       </c>
@@ -5323,7 +5324,7 @@
         <v>64.83</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>112460</v>
       </c>
@@ -5343,7 +5344,7 @@
         <v>57.67</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>111819</v>
       </c>
@@ -5363,7 +5364,7 @@
         <v>58.27</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>122950</v>
       </c>
@@ -5383,7 +5384,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>132705</v>
       </c>
@@ -5403,7 +5404,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>119091</v>
       </c>
@@ -5423,7 +5424,7 @@
         <v>70.17</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>124117</v>
       </c>
@@ -5443,7 +5444,7 @@
         <v>73.87</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>142278</v>
       </c>
@@ -5463,7 +5464,7 @@
         <v>73.930000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>144165</v>
       </c>
@@ -5483,7 +5484,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>138913</v>
       </c>
@@ -5503,7 +5504,7 @@
         <v>71.27</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>146009</v>
       </c>
@@ -5523,7 +5524,7 @@
         <v>73.069999999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>154335</v>
       </c>
@@ -5543,7 +5544,7 @@
         <v>71.87</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>154418</v>
       </c>
@@ -5563,7 +5564,7 @@
         <v>59.67</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>154026</v>
       </c>
@@ -5583,7 +5584,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>160743</v>
       </c>
@@ -5603,7 +5604,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>172000</v>
       </c>
@@ -5623,7 +5624,7 @@
         <v>76.3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>172584</v>
       </c>
@@ -5643,7 +5644,7 @@
         <v>74.97</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>167223</v>
       </c>
@@ -5663,7 +5664,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>171221</v>
       </c>
@@ -5683,7 +5684,7 @@
         <v>76.67</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>189832</v>
       </c>
@@ -5703,7 +5704,7 @@
         <v>81.67</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>192517</v>
       </c>
@@ -5723,7 +5724,7 @@
         <v>81.569999999999993</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>181804</v>
       </c>
@@ -5743,7 +5744,7 @@
         <v>76.930000000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>179902</v>
       </c>
@@ -5763,7 +5764,7 @@
         <v>80.930000000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>203914</v>
       </c>
@@ -5783,7 +5784,7 @@
         <v>82.83</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>205791</v>
       </c>
@@ -5803,7 +5804,7 @@
         <v>82.97</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>195535</v>
       </c>
@@ -5823,7 +5824,7 @@
         <v>89.77</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>194135</v>
       </c>
@@ -5843,7 +5844,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>216311</v>
       </c>
@@ -5863,7 +5864,7 @@
         <v>94.23</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>221493</v>
       </c>
@@ -5883,7 +5884,7 @@
         <v>90.73</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>210181</v>
       </c>
@@ -5903,7 +5904,7 @@
         <v>91.3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>204681</v>
       </c>
@@ -5923,7 +5924,7 @@
         <v>91.57</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>221073</v>
       </c>
@@ -5943,7 +5944,7 @@
         <v>92.4</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>229123</v>
       </c>
@@ -5963,7 +5964,7 @@
         <v>90.33</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>221392</v>
       </c>
@@ -5989,19 +5990,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18:Q18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -6009,7 +6010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -6017,7 +6018,7 @@
         <v>25.495099079689211</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>42</v>
       </c>
@@ -6025,7 +6026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -6034,7 +6035,7 @@
         <v>119.80196036812431</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -6043,7 +6044,7 @@
         <v>4.6990192112477454</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -6052,7 +6053,7 @@
         <v>9.3980384224954907</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -6061,7 +6062,7 @@
         <v>108.40392194562882</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6069,14 +6070,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="7">
         <f>B8</f>
         <v>108.40392194562882</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>5</v>
       </c>
@@ -6085,7 +6086,7 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -6093,7 +6094,7 @@
         <v>98.8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>15</v>
       </c>
@@ -6101,7 +6102,7 @@
         <v>105.46666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>20</v>
       </c>
@@ -6109,7 +6110,7 @@
         <v>107.8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>25</v>
       </c>
@@ -6117,7 +6118,7 @@
         <v>108.4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>30</v>
       </c>
@@ -6125,7 +6126,7 @@
         <v>108.13333333333334</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>35</v>
       </c>
@@ -6133,7 +6134,7 @@
         <v>107.37142857142857</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>40</v>
       </c>
@@ -6148,19 +6149,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1174B794-AA72-4E0A-AA1C-93728A6FA86E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -6168,7 +6169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -6176,7 +6177,7 @@
         <v>25.495099079689211</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>42</v>
       </c>
@@ -6184,7 +6185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -6193,7 +6194,7 @@
         <v>119.80196036812431</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -6202,7 +6203,7 @@
         <v>4.6990192112477454</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -6211,7 +6212,7 @@
         <v>9.3980384224954907</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -6220,7 +6221,7 @@
         <v>108.40392194562882</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6228,14 +6229,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="7">
         <f>B8</f>
         <v>108.40392194562882</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>5</v>
       </c>
@@ -6244,7 +6245,7 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -6252,7 +6253,7 @@
         <v>98.8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>15</v>
       </c>
@@ -6260,7 +6261,7 @@
         <v>105.46666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>20</v>
       </c>
@@ -6268,7 +6269,7 @@
         <v>107.8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>25</v>
       </c>
@@ -6276,7 +6277,7 @@
         <v>108.4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>30</v>
       </c>
@@ -6284,7 +6285,7 @@
         <v>108.13333333333334</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>35</v>
       </c>
@@ -6292,7 +6293,7 @@
         <v>107.37142857142857</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>40</v>
       </c>
@@ -6307,28 +6308,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE31776-43D3-4417-8CF0-B92E2BCE5325}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" customWidth="1"/>
-    <col min="12" max="14" width="8.5703125" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.75" customWidth="1"/>
+    <col min="12" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="22.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6367,7 +6368,7 @@
         <v>UMICS</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44229</v>
       </c>
@@ -6405,7 +6406,7 @@
         <v>1122.4290256210936</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44318</v>
       </c>
@@ -6450,7 +6451,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44410</v>
       </c>
@@ -6502,7 +6503,7 @@
         <v>217301.20330798568</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44502</v>
       </c>
@@ -6554,7 +6555,7 @@
         <v>220171.00789138034</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44230</v>
       </c>
@@ -6606,7 +6607,7 @@
         <v>218863.37442565535</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44319</v>
       </c>
@@ -6658,7 +6659,7 @@
         <v>223659.7911644369</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44411</v>
       </c>
@@ -6701,7 +6702,7 @@
       </c>
       <c r="U8" s="12"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44503</v>
       </c>
@@ -6746,7 +6747,7 @@
         <v>228048.47701365547</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44231</v>
       </c>
@@ -6794,7 +6795,7 @@
         <v>231010.93872776636</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44320</v>
       </c>
@@ -6855,7 +6856,7 @@
         <v>229700.49253873003</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44412</v>
       </c>
@@ -6918,7 +6919,7 @@
         <v>234575.9338295639</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44504</v>
       </c>
@@ -6952,7 +6953,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44232</v>
       </c>
@@ -6984,7 +6985,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44321</v>
       </c>
@@ -7004,7 +7005,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44413</v>
       </c>
@@ -7043,7 +7044,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44505</v>
       </c>
@@ -7084,7 +7085,7 @@
         <v>100511.32765847033</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44233</v>
       </c>
@@ -7125,7 +7126,7 @@
         <v>4.0121879994028662</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44322</v>
       </c>
@@ -7166,7 +7167,7 @@
         <v>-4335.3236929273698</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44414</v>
       </c>
@@ -7207,7 +7208,7 @@
         <v>-388.72297370150409</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44506</v>
       </c>
@@ -7248,7 +7249,7 @@
         <v>1544.6320884107788</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44234</v>
       </c>
@@ -7268,7 +7269,7 @@
         <v>92.2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44323</v>
       </c>
@@ -7288,7 +7289,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44415</v>
       </c>
@@ -7308,7 +7309,7 @@
         <v>85.73</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44507</v>
       </c>
@@ -7328,7 +7329,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44235</v>
       </c>
@@ -7348,7 +7349,7 @@
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44324</v>
       </c>
@@ -7368,7 +7369,7 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44416</v>
       </c>
@@ -7388,7 +7389,7 @@
         <v>64.83</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44508</v>
       </c>
@@ -7408,7 +7409,7 @@
         <v>57.67</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44236</v>
       </c>
@@ -7428,7 +7429,7 @@
         <v>58.27</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44325</v>
       </c>
@@ -7448,7 +7449,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44417</v>
       </c>
@@ -7468,7 +7469,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44509</v>
       </c>
@@ -7488,7 +7489,7 @@
         <v>70.17</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44237</v>
       </c>
@@ -7508,7 +7509,7 @@
         <v>73.87</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44326</v>
       </c>
@@ -7528,7 +7529,7 @@
         <v>73.930000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44418</v>
       </c>
@@ -7548,7 +7549,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44510</v>
       </c>
@@ -7568,7 +7569,7 @@
         <v>71.27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44238</v>
       </c>
@@ -7588,7 +7589,7 @@
         <v>73.069999999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44327</v>
       </c>
@@ -7608,7 +7609,7 @@
         <v>71.87</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44419</v>
       </c>
@@ -7628,7 +7629,7 @@
         <v>59.67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44511</v>
       </c>
@@ -7648,7 +7649,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44239</v>
       </c>
@@ -7668,7 +7669,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44328</v>
       </c>
@@ -7688,7 +7689,7 @@
         <v>76.3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44420</v>
       </c>
@@ -7708,7 +7709,7 @@
         <v>74.97</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44512</v>
       </c>
@@ -7728,7 +7729,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44240</v>
       </c>
@@ -7748,7 +7749,7 @@
         <v>76.67</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44329</v>
       </c>
@@ -7768,7 +7769,7 @@
         <v>81.67</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44421</v>
       </c>
@@ -7788,7 +7789,7 @@
         <v>81.569999999999993</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44513</v>
       </c>
@@ -7808,7 +7809,7 @@
         <v>76.930000000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44241</v>
       </c>
@@ -7828,7 +7829,7 @@
         <v>80.930000000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44330</v>
       </c>
@@ -7848,7 +7849,7 @@
         <v>82.83</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44422</v>
       </c>
@@ -7868,7 +7869,7 @@
         <v>82.97</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44514</v>
       </c>
@@ -7888,7 +7889,7 @@
         <v>89.77</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44242</v>
       </c>
@@ -7908,7 +7909,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44331</v>
       </c>
@@ -7928,7 +7929,7 @@
         <v>94.23</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44423</v>
       </c>
@@ -7948,7 +7949,7 @@
         <v>90.73</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44515</v>
       </c>
@@ -7968,7 +7969,7 @@
         <v>91.3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44243</v>
       </c>
@@ -7988,7 +7989,7 @@
         <v>91.57</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44332</v>
       </c>
@@ -8008,7 +8009,7 @@
         <v>92.4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44424</v>
       </c>
@@ -8028,7 +8029,7 @@
         <v>90.33</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44516</v>
       </c>
@@ -8054,21 +8055,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF6D9EDA35E42B4B8BA68358CD6B4667" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1c2d3313f571f159a984235e0da85421">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d47f257c-f9b4-4a78-89eb-782bf7388d0d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64fa7c12d726f85c4b96a9ad3b163f70" ns2:_="">
     <xsd:import namespace="d47f257c-f9b4-4a78-89eb-782bf7388d0d"/>
@@ -8200,24 +8186,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29DE5C07-7EC8-4FC9-9645-461DFD62B662}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{406D4DDB-DB78-4306-A1E2-4E728C294490}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B87E07-A249-4FCB-A840-4602C0DEFDE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8233,4 +8217,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{406D4DDB-DB78-4306-A1E2-4E728C294490}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29DE5C07-7EC8-4FC9-9645-461DFD62B662}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/09 - Multiple Regression/09-MultipleRegression.xlsx
+++ b/09 - Multiple Regression/09-MultipleRegression.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\business-forecasting\09 - Multiple Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\business-forecasting\09 - Multiple Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271E3263-B8A1-4382-A47D-E448B6B30E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="1335" windowWidth="22920" windowHeight="12855" activeTab="3"/>
+    <workbookView xWindow="1965" yWindow="795" windowWidth="24885" windowHeight="14490" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -75,7 +76,7 @@
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -270,23 +271,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="187" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -294,7 +295,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -302,7 +303,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -369,7 +370,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -380,7 +381,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="187" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -580,7 +581,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -606,7 +606,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="th-TH"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -644,7 +644,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="th-TH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="730645008"/>
@@ -704,7 +704,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -730,7 +729,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="th-TH"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -768,7 +767,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="th-TH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="730647088"/>
@@ -809,7 +808,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="th-TH"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1023,7 +1022,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="th-TH"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1061,7 +1060,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="th-TH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="730645008"/>
@@ -1146,7 +1145,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="th-TH"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1184,7 +1183,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="th-TH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="730647088"/>
@@ -1225,7 +1224,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="th-TH"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2782,28 +2781,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2811,7 +2810,7 @@
         <v>0.91003473112272859</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2819,7 +2818,7 @@
         <v>0.82816321184961683</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2827,7 +2826,7 @@
         <v>0.81566599089322533</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -2835,7 +2834,7 @@
         <v>11689.892189957467</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -2843,12 +2842,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -2866,7 +2865,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -2886,7 +2885,7 @@
         <v>2.1968743067485653E-20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2902,7 +2901,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -2916,8 +2915,8 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>23</v>
@@ -2944,7 +2943,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -2973,7 +2972,7 @@
         <v>100511.32765847033</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -3002,7 +3001,7 @@
         <v>4.0121879994028662</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -3031,7 +3030,7 @@
         <v>-4335.3236929273698</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -3060,7 +3059,7 @@
         <v>-388.72297370150409</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
@@ -3095,27 +3094,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.75" customWidth="1"/>
-    <col min="12" max="14" width="8.625" customWidth="1"/>
-    <col min="15" max="15" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="12" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3154,7 +3153,7 @@
         <v>UMICS</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44229</v>
       </c>
@@ -3192,7 +3191,7 @@
         <v>1122.4290256210936</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44318</v>
       </c>
@@ -3237,7 +3236,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44410</v>
       </c>
@@ -3289,7 +3288,7 @@
         <v>217301.20330798568</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44502</v>
       </c>
@@ -3341,7 +3340,7 @@
         <v>220171.00789138034</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44230</v>
       </c>
@@ -3393,7 +3392,7 @@
         <v>218863.37442565535</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44319</v>
       </c>
@@ -3445,7 +3444,7 @@
         <v>223659.7911644369</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44411</v>
       </c>
@@ -3471,7 +3470,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44503</v>
       </c>
@@ -3491,7 +3490,7 @@
         <v>91.97</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44231</v>
       </c>
@@ -3514,7 +3513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44320</v>
       </c>
@@ -3550,7 +3549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44412</v>
       </c>
@@ -3588,7 +3587,7 @@
         <v>2.1968743067485653E-20</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44504</v>
       </c>
@@ -3622,7 +3621,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44232</v>
       </c>
@@ -3654,7 +3653,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44321</v>
       </c>
@@ -3674,7 +3673,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44413</v>
       </c>
@@ -3713,7 +3712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44505</v>
       </c>
@@ -3754,7 +3753,7 @@
         <v>100511.32765847033</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44233</v>
       </c>
@@ -3795,7 +3794,7 @@
         <v>4.0121879994028662</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44322</v>
       </c>
@@ -3836,7 +3835,7 @@
         <v>-4335.3236929273698</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44414</v>
       </c>
@@ -3877,7 +3876,7 @@
         <v>-388.72297370150409</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44506</v>
       </c>
@@ -3918,7 +3917,7 @@
         <v>1544.6320884107788</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44234</v>
       </c>
@@ -3938,7 +3937,7 @@
         <v>92.2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44323</v>
       </c>
@@ -3958,7 +3957,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44415</v>
       </c>
@@ -3978,7 +3977,7 @@
         <v>85.73</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44507</v>
       </c>
@@ -3998,7 +3997,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44235</v>
       </c>
@@ -4018,7 +4017,7 @@
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44324</v>
       </c>
@@ -4038,7 +4037,7 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44416</v>
       </c>
@@ -4058,7 +4057,7 @@
         <v>64.83</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44508</v>
       </c>
@@ -4078,7 +4077,7 @@
         <v>57.67</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44236</v>
       </c>
@@ -4098,7 +4097,7 @@
         <v>58.27</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44325</v>
       </c>
@@ -4118,7 +4117,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44417</v>
       </c>
@@ -4138,7 +4137,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44509</v>
       </c>
@@ -4158,7 +4157,7 @@
         <v>70.17</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44237</v>
       </c>
@@ -4178,7 +4177,7 @@
         <v>73.87</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44326</v>
       </c>
@@ -4198,7 +4197,7 @@
         <v>73.930000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44418</v>
       </c>
@@ -4218,7 +4217,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44510</v>
       </c>
@@ -4238,7 +4237,7 @@
         <v>71.27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44238</v>
       </c>
@@ -4258,7 +4257,7 @@
         <v>73.069999999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44327</v>
       </c>
@@ -4278,7 +4277,7 @@
         <v>71.87</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44419</v>
       </c>
@@ -4298,7 +4297,7 @@
         <v>59.67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44511</v>
       </c>
@@ -4318,7 +4317,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44239</v>
       </c>
@@ -4338,7 +4337,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44328</v>
       </c>
@@ -4358,7 +4357,7 @@
         <v>76.3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44420</v>
       </c>
@@ -4378,7 +4377,7 @@
         <v>74.97</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44512</v>
       </c>
@@ -4398,7 +4397,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44240</v>
       </c>
@@ -4418,7 +4417,7 @@
         <v>76.67</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44329</v>
       </c>
@@ -4438,7 +4437,7 @@
         <v>81.67</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44421</v>
       </c>
@@ -4458,7 +4457,7 @@
         <v>81.569999999999993</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44513</v>
       </c>
@@ -4478,7 +4477,7 @@
         <v>76.930000000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44241</v>
       </c>
@@ -4498,7 +4497,7 @@
         <v>80.930000000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44330</v>
       </c>
@@ -4518,7 +4517,7 @@
         <v>82.83</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44422</v>
       </c>
@@ -4538,7 +4537,7 @@
         <v>82.97</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44514</v>
       </c>
@@ -4558,7 +4557,7 @@
         <v>89.77</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44242</v>
       </c>
@@ -4578,7 +4577,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44331</v>
       </c>
@@ -4598,7 +4597,7 @@
         <v>94.23</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44423</v>
       </c>
@@ -4618,7 +4617,7 @@
         <v>90.73</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44515</v>
       </c>
@@ -4638,7 +4637,7 @@
         <v>91.3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44243</v>
       </c>
@@ -4658,7 +4657,7 @@
         <v>91.57</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44332</v>
       </c>
@@ -4678,7 +4677,7 @@
         <v>92.4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44424</v>
       </c>
@@ -4698,7 +4697,7 @@
         <v>90.33</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44516</v>
       </c>
@@ -4724,16 +4723,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4753,7 +4752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>152641</v>
       </c>
@@ -4780,7 +4779,7 @@
         <v>25428.255372432483</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>166036</v>
       </c>
@@ -4806,7 +4805,7 @@
         <v>3.2274615664638113</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>175863</v>
       </c>
@@ -4832,7 +4831,7 @@
         <v>-7666.8515781450242</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>151219</v>
       </c>
@@ -4858,7 +4857,7 @@
         <v>-3219.49912454477</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>152843</v>
       </c>
@@ -4884,7 +4883,7 @@
         <v>1122.4290256210024</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>173360</v>
       </c>
@@ -4904,7 +4903,7 @@
         <v>89.27</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>178086</v>
       </c>
@@ -4924,7 +4923,7 @@
         <v>89.3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>154916</v>
       </c>
@@ -4944,7 +4943,7 @@
         <v>91.97</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>159086</v>
       </c>
@@ -4964,7 +4963,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>172174</v>
       </c>
@@ -4984,7 +4983,7 @@
         <v>93.33</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>178077</v>
       </c>
@@ -5004,7 +5003,7 @@
         <v>95.6</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>161216</v>
       </c>
@@ -5024,7 +5023,7 @@
         <v>93.87</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>160070</v>
       </c>
@@ -5044,7 +5043,7 @@
         <v>94.07</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>183594</v>
       </c>
@@ -5064,7 +5063,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>184878</v>
       </c>
@@ -5084,7 +5083,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>153405</v>
       </c>
@@ -5104,7 +5103,7 @@
         <v>82.43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>164864</v>
       </c>
@@ -5124,7 +5123,7 @@
         <v>88.93</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>178363</v>
       </c>
@@ -5144,7 +5143,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>181615</v>
       </c>
@@ -5164,7 +5163,7 @@
         <v>84.03</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>160780</v>
       </c>
@@ -5184,7 +5183,7 @@
         <v>92.47</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>167528</v>
       </c>
@@ -5204,7 +5203,7 @@
         <v>92.2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>180006</v>
       </c>
@@ -5224,7 +5223,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>179216</v>
       </c>
@@ -5244,7 +5243,7 @@
         <v>85.73</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>160957</v>
       </c>
@@ -5264,7 +5263,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>158369</v>
       </c>
@@ -5284,7 +5283,7 @@
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>158761</v>
       </c>
@@ -5304,7 +5303,7 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>146003</v>
       </c>
@@ -5324,7 +5323,7 @@
         <v>64.83</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>112460</v>
       </c>
@@ -5344,7 +5343,7 @@
         <v>57.67</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>111819</v>
       </c>
@@ -5364,7 +5363,7 @@
         <v>58.27</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>122950</v>
       </c>
@@ -5384,7 +5383,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>132705</v>
       </c>
@@ -5404,7 +5403,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>119091</v>
       </c>
@@ -5424,7 +5423,7 @@
         <v>70.17</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>124117</v>
       </c>
@@ -5444,7 +5443,7 @@
         <v>73.87</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>142278</v>
       </c>
@@ -5464,7 +5463,7 @@
         <v>73.930000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>144165</v>
       </c>
@@ -5484,7 +5483,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>138913</v>
       </c>
@@ -5504,7 +5503,7 @@
         <v>71.27</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>146009</v>
       </c>
@@ -5524,7 +5523,7 @@
         <v>73.069999999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>154335</v>
       </c>
@@ -5544,7 +5543,7 @@
         <v>71.87</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>154418</v>
       </c>
@@ -5564,7 +5563,7 @@
         <v>59.67</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>154026</v>
       </c>
@@ -5584,7 +5583,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>160743</v>
       </c>
@@ -5604,7 +5603,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>172000</v>
       </c>
@@ -5624,7 +5623,7 @@
         <v>76.3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>172584</v>
       </c>
@@ -5644,7 +5643,7 @@
         <v>74.97</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>167223</v>
       </c>
@@ -5664,7 +5663,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>171221</v>
       </c>
@@ -5684,7 +5683,7 @@
         <v>76.67</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>189832</v>
       </c>
@@ -5704,7 +5703,7 @@
         <v>81.67</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>192517</v>
       </c>
@@ -5724,7 +5723,7 @@
         <v>81.569999999999993</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>181804</v>
       </c>
@@ -5744,7 +5743,7 @@
         <v>76.930000000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>179902</v>
       </c>
@@ -5764,7 +5763,7 @@
         <v>80.930000000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>203914</v>
       </c>
@@ -5784,7 +5783,7 @@
         <v>82.83</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>205791</v>
       </c>
@@ -5804,7 +5803,7 @@
         <v>82.97</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>195535</v>
       </c>
@@ -5824,7 +5823,7 @@
         <v>89.77</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>194135</v>
       </c>
@@ -5844,7 +5843,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>216311</v>
       </c>
@@ -5864,7 +5863,7 @@
         <v>94.23</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>221493</v>
       </c>
@@ -5884,7 +5883,7 @@
         <v>90.73</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>210181</v>
       </c>
@@ -5904,7 +5903,7 @@
         <v>91.3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>204681</v>
       </c>
@@ -5924,7 +5923,7 @@
         <v>91.57</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>221073</v>
       </c>
@@ -5944,7 +5943,7 @@
         <v>92.4</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>229123</v>
       </c>
@@ -5964,7 +5963,7 @@
         <v>90.33</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>221392</v>
       </c>
@@ -5990,19 +5989,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.25" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -6010,7 +6009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -6018,7 +6017,7 @@
         <v>25.495099079689211</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>42</v>
       </c>
@@ -6026,7 +6025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -6035,7 +6034,7 @@
         <v>119.80196036812431</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -6044,7 +6043,7 @@
         <v>4.6990192112477454</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -6053,7 +6052,7 @@
         <v>9.3980384224954907</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -6062,7 +6061,7 @@
         <v>108.40392194562882</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6070,14 +6069,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="7">
         <f>B8</f>
         <v>108.40392194562882</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>5</v>
       </c>
@@ -6086,7 +6085,7 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -6094,7 +6093,7 @@
         <v>98.8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>15</v>
       </c>
@@ -6102,7 +6101,7 @@
         <v>105.46666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>20</v>
       </c>
@@ -6110,7 +6109,7 @@
         <v>107.8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>25</v>
       </c>
@@ -6118,7 +6117,7 @@
         <v>108.4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>30</v>
       </c>
@@ -6126,7 +6125,7 @@
         <v>108.13333333333334</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>35</v>
       </c>
@@ -6134,7 +6133,7 @@
         <v>107.37142857142857</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>40</v>
       </c>
@@ -6149,19 +6148,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.25" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -6169,7 +6168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -6177,7 +6176,7 @@
         <v>25.495099079689211</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>42</v>
       </c>
@@ -6185,7 +6184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -6194,7 +6193,7 @@
         <v>119.80196036812431</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -6203,7 +6202,7 @@
         <v>4.6990192112477454</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -6212,7 +6211,7 @@
         <v>9.3980384224954907</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -6221,7 +6220,7 @@
         <v>108.40392194562882</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6229,14 +6228,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="7">
         <f>B8</f>
         <v>108.40392194562882</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>5</v>
       </c>
@@ -6245,7 +6244,7 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -6253,7 +6252,7 @@
         <v>98.8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>15</v>
       </c>
@@ -6261,7 +6260,7 @@
         <v>105.46666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>20</v>
       </c>
@@ -6269,7 +6268,7 @@
         <v>107.8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>25</v>
       </c>
@@ -6277,7 +6276,7 @@
         <v>108.4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>30</v>
       </c>
@@ -6285,7 +6284,7 @@
         <v>108.13333333333334</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>35</v>
       </c>
@@ -6293,7 +6292,7 @@
         <v>107.37142857142857</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>40</v>
       </c>
@@ -6308,28 +6307,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.75" customWidth="1"/>
-    <col min="12" max="14" width="8.625" customWidth="1"/>
-    <col min="15" max="15" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="12" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6368,7 +6367,7 @@
         <v>UMICS</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44229</v>
       </c>
@@ -6406,7 +6405,7 @@
         <v>1122.4290256210936</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44318</v>
       </c>
@@ -6451,7 +6450,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44410</v>
       </c>
@@ -6503,7 +6502,7 @@
         <v>217301.20330798568</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44502</v>
       </c>
@@ -6555,7 +6554,7 @@
         <v>220171.00789138034</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44230</v>
       </c>
@@ -6607,7 +6606,7 @@
         <v>218863.37442565535</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44319</v>
       </c>
@@ -6659,7 +6658,7 @@
         <v>223659.7911644369</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44411</v>
       </c>
@@ -6702,7 +6701,7 @@
       </c>
       <c r="U8" s="12"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44503</v>
       </c>
@@ -6747,7 +6746,7 @@
         <v>228048.47701365547</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44231</v>
       </c>
@@ -6795,7 +6794,7 @@
         <v>231010.93872776636</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44320</v>
       </c>
@@ -6856,7 +6855,7 @@
         <v>229700.49253873003</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44412</v>
       </c>
@@ -6919,7 +6918,7 @@
         <v>234575.9338295639</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44504</v>
       </c>
@@ -6953,7 +6952,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44232</v>
       </c>
@@ -6985,7 +6984,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44321</v>
       </c>
@@ -7005,7 +7004,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44413</v>
       </c>
@@ -7044,7 +7043,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44505</v>
       </c>
@@ -7085,7 +7084,7 @@
         <v>100511.32765847033</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44233</v>
       </c>
@@ -7126,7 +7125,7 @@
         <v>4.0121879994028662</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44322</v>
       </c>
@@ -7167,7 +7166,7 @@
         <v>-4335.3236929273698</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44414</v>
       </c>
@@ -7208,7 +7207,7 @@
         <v>-388.72297370150409</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44506</v>
       </c>
@@ -7249,7 +7248,7 @@
         <v>1544.6320884107788</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44234</v>
       </c>
@@ -7269,7 +7268,7 @@
         <v>92.2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44323</v>
       </c>
@@ -7289,7 +7288,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44415</v>
       </c>
@@ -7309,7 +7308,7 @@
         <v>85.73</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44507</v>
       </c>
@@ -7329,7 +7328,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44235</v>
       </c>
@@ -7349,7 +7348,7 @@
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44324</v>
       </c>
@@ -7369,7 +7368,7 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44416</v>
       </c>
@@ -7389,7 +7388,7 @@
         <v>64.83</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44508</v>
       </c>
@@ -7409,7 +7408,7 @@
         <v>57.67</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44236</v>
       </c>
@@ -7429,7 +7428,7 @@
         <v>58.27</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44325</v>
       </c>
@@ -7449,7 +7448,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44417</v>
       </c>
@@ -7469,7 +7468,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44509</v>
       </c>
@@ -7489,7 +7488,7 @@
         <v>70.17</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44237</v>
       </c>
@@ -7509,7 +7508,7 @@
         <v>73.87</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44326</v>
       </c>
@@ -7529,7 +7528,7 @@
         <v>73.930000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44418</v>
       </c>
@@ -7549,7 +7548,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44510</v>
       </c>
@@ -7569,7 +7568,7 @@
         <v>71.27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44238</v>
       </c>
@@ -7589,7 +7588,7 @@
         <v>73.069999999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44327</v>
       </c>
@@ -7609,7 +7608,7 @@
         <v>71.87</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44419</v>
       </c>
@@ -7629,7 +7628,7 @@
         <v>59.67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44511</v>
       </c>
@@ -7649,7 +7648,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44239</v>
       </c>
@@ -7669,7 +7668,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44328</v>
       </c>
@@ -7689,7 +7688,7 @@
         <v>76.3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44420</v>
       </c>
@@ -7709,7 +7708,7 @@
         <v>74.97</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44512</v>
       </c>
@@ -7729,7 +7728,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44240</v>
       </c>
@@ -7749,7 +7748,7 @@
         <v>76.67</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44329</v>
       </c>
@@ -7769,7 +7768,7 @@
         <v>81.67</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44421</v>
       </c>
@@ -7789,7 +7788,7 @@
         <v>81.569999999999993</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44513</v>
       </c>
@@ -7809,7 +7808,7 @@
         <v>76.930000000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44241</v>
       </c>
@@ -7829,7 +7828,7 @@
         <v>80.930000000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44330</v>
       </c>
@@ -7849,7 +7848,7 @@
         <v>82.83</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44422</v>
       </c>
@@ -7869,7 +7868,7 @@
         <v>82.97</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44514</v>
       </c>
@@ -7889,7 +7888,7 @@
         <v>89.77</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44242</v>
       </c>
@@ -7909,7 +7908,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44331</v>
       </c>
@@ -7929,7 +7928,7 @@
         <v>94.23</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44423</v>
       </c>
@@ -7949,7 +7948,7 @@
         <v>90.73</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44515</v>
       </c>
@@ -7969,7 +7968,7 @@
         <v>91.3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44243</v>
       </c>
@@ -7989,7 +7988,7 @@
         <v>91.57</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44332</v>
       </c>
@@ -8009,7 +8008,7 @@
         <v>92.4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44424</v>
       </c>
@@ -8029,7 +8028,7 @@
         <v>90.33</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44516</v>
       </c>
@@ -8055,6 +8054,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF6D9EDA35E42B4B8BA68358CD6B4667" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1c2d3313f571f159a984235e0da85421">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d47f257c-f9b4-4a78-89eb-782bf7388d0d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64fa7c12d726f85c4b96a9ad3b163f70" ns2:_="">
     <xsd:import namespace="d47f257c-f9b4-4a78-89eb-782bf7388d0d"/>
@@ -8186,22 +8200,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29DE5C07-7EC8-4FC9-9645-461DFD62B662}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{406D4DDB-DB78-4306-A1E2-4E728C294490}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B87E07-A249-4FCB-A840-4602C0DEFDE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8217,21 +8233,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{406D4DDB-DB78-4306-A1E2-4E728C294490}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29DE5C07-7EC8-4FC9-9645-461DFD62B662}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>